--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Pdpn-Clec1b.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Pdpn-Clec1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Clec1b</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>66.27796083391181</v>
+        <v>1.445904666666667</v>
       </c>
       <c r="H2">
-        <v>66.27796083391181</v>
+        <v>4.337714</v>
       </c>
       <c r="I2">
-        <v>0.3913366861620495</v>
+        <v>0.008079195386183968</v>
       </c>
       <c r="J2">
-        <v>0.3913366861620495</v>
+        <v>0.008079195386183968</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.21127627861901</v>
+        <v>3.878011333333333</v>
       </c>
       <c r="N2">
-        <v>3.21127627861901</v>
+        <v>11.634034</v>
       </c>
       <c r="O2">
-        <v>0.5731071638204702</v>
+        <v>0.5966586801275698</v>
       </c>
       <c r="P2">
-        <v>0.5731071638204702</v>
+        <v>0.59665868012757</v>
       </c>
       <c r="Q2">
-        <v>212.8368434211808</v>
+        <v>5.607234684252888</v>
       </c>
       <c r="R2">
-        <v>212.8368434211808</v>
+        <v>50.465112158276</v>
       </c>
       <c r="S2">
-        <v>0.2242778583052337</v>
+        <v>0.004820522055613278</v>
       </c>
       <c r="T2">
-        <v>0.2242778583052337</v>
+        <v>0.004820522055613279</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>66.27796083391181</v>
+        <v>1.445904666666667</v>
       </c>
       <c r="H3">
-        <v>66.27796083391181</v>
+        <v>4.337714</v>
       </c>
       <c r="I3">
-        <v>0.3913366861620495</v>
+        <v>0.008079195386183968</v>
       </c>
       <c r="J3">
-        <v>0.3913366861620495</v>
+        <v>0.008079195386183968</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.617024204402854</v>
+        <v>0.7659946666666667</v>
       </c>
       <c r="N3">
-        <v>0.617024204402854</v>
+        <v>2.297984</v>
       </c>
       <c r="O3">
-        <v>0.1101185202121489</v>
+        <v>0.1178535407747883</v>
       </c>
       <c r="P3">
-        <v>0.1101185202121489</v>
+        <v>0.1178535407747883</v>
       </c>
       <c r="Q3">
-        <v>40.89510605298795</v>
+        <v>1.107555263175111</v>
       </c>
       <c r="R3">
-        <v>40.89510605298795</v>
+        <v>9.967997368576</v>
       </c>
       <c r="S3">
-        <v>0.04309341678489102</v>
+        <v>0.0009521617828731138</v>
       </c>
       <c r="T3">
-        <v>0.04309341678489102</v>
+        <v>0.0009521617828731141</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>66.27796083391181</v>
+        <v>1.445904666666667</v>
       </c>
       <c r="H4">
-        <v>66.27796083391181</v>
+        <v>4.337714</v>
       </c>
       <c r="I4">
-        <v>0.3913366861620495</v>
+        <v>0.008079195386183968</v>
       </c>
       <c r="J4">
-        <v>0.3913366861620495</v>
+        <v>0.008079195386183968</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.77497318260791</v>
+        <v>1.820158333333333</v>
       </c>
       <c r="N4">
-        <v>1.77497318260791</v>
+        <v>5.460475</v>
       </c>
       <c r="O4">
-        <v>0.3167743159673808</v>
+        <v>0.2800438615160994</v>
       </c>
       <c r="P4">
-        <v>0.3167743159673808</v>
+        <v>0.2800438615160994</v>
       </c>
       <c r="Q4">
-        <v>117.6416030781308</v>
+        <v>2.631775428238889</v>
       </c>
       <c r="R4">
-        <v>117.6416030781308</v>
+        <v>23.68597885415</v>
       </c>
       <c r="S4">
-        <v>0.1239654110719248</v>
+        <v>0.002262529073890012</v>
       </c>
       <c r="T4">
-        <v>0.1239654110719248</v>
+        <v>0.002262529073890013</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>78.43713383827649</v>
+        <v>1.445904666666667</v>
       </c>
       <c r="H5">
-        <v>78.43713383827649</v>
+        <v>4.337714</v>
       </c>
       <c r="I5">
-        <v>0.463130241819611</v>
+        <v>0.008079195386183968</v>
       </c>
       <c r="J5">
-        <v>0.463130241819611</v>
+        <v>0.008079195386183968</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>3.21127627861901</v>
+        <v>0.035383</v>
       </c>
       <c r="N5">
-        <v>3.21127627861901</v>
+        <v>0.106149</v>
       </c>
       <c r="O5">
-        <v>0.5731071638204702</v>
+        <v>0.005443917581542344</v>
       </c>
       <c r="P5">
-        <v>0.5731071638204702</v>
+        <v>0.005443917581542346</v>
       </c>
       <c r="Q5">
-        <v>251.8833072577218</v>
+        <v>0.05116044482066666</v>
       </c>
       <c r="R5">
-        <v>251.8833072577218</v>
+        <v>0.460444003386</v>
       </c>
       <c r="S5">
-        <v>0.2654232593687258</v>
+        <v>4.398247380756269E-05</v>
       </c>
       <c r="T5">
-        <v>0.2654232593687258</v>
+        <v>4.39824738075627E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>78.43713383827649</v>
+        <v>66.98490533333333</v>
       </c>
       <c r="H6">
-        <v>78.43713383827649</v>
+        <v>200.954716</v>
       </c>
       <c r="I6">
-        <v>0.463130241819611</v>
+        <v>0.3742875658328579</v>
       </c>
       <c r="J6">
-        <v>0.463130241819611</v>
+        <v>0.3742875658328579</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.617024204402854</v>
+        <v>3.878011333333333</v>
       </c>
       <c r="N6">
-        <v>0.617024204402854</v>
+        <v>11.634034</v>
       </c>
       <c r="O6">
-        <v>0.1101185202121489</v>
+        <v>0.5966586801275698</v>
       </c>
       <c r="P6">
-        <v>0.1101185202121489</v>
+        <v>0.59665868012757</v>
       </c>
       <c r="Q6">
-        <v>48.39761010220273</v>
+        <v>259.7682220449271</v>
       </c>
       <c r="R6">
-        <v>48.39761010220273</v>
+        <v>2337.913998404344</v>
       </c>
       <c r="S6">
-        <v>0.05099921689467025</v>
+        <v>0.2233219250179939</v>
       </c>
       <c r="T6">
-        <v>0.05099921689467025</v>
+        <v>0.2233219250179939</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>78.43713383827649</v>
+        <v>66.98490533333333</v>
       </c>
       <c r="H7">
-        <v>78.43713383827649</v>
+        <v>200.954716</v>
       </c>
       <c r="I7">
-        <v>0.463130241819611</v>
+        <v>0.3742875658328579</v>
       </c>
       <c r="J7">
-        <v>0.463130241819611</v>
+        <v>0.3742875658328579</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.77497318260791</v>
+        <v>0.7659946666666667</v>
       </c>
       <c r="N7">
-        <v>1.77497318260791</v>
+        <v>2.297984</v>
       </c>
       <c r="O7">
-        <v>0.3167743159673808</v>
+        <v>0.1178535407747883</v>
       </c>
       <c r="P7">
-        <v>0.3167743159673808</v>
+        <v>0.1178535407747883</v>
       </c>
       <c r="Q7">
-        <v>139.2238090835682</v>
+        <v>51.31008023250489</v>
       </c>
       <c r="R7">
-        <v>139.2238090835682</v>
+        <v>461.790722092544</v>
       </c>
       <c r="S7">
-        <v>0.146707765556215</v>
+        <v>0.04411111490137898</v>
       </c>
       <c r="T7">
-        <v>0.146707765556215</v>
+        <v>0.04411111490137899</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.4299224296997</v>
+        <v>66.98490533333333</v>
       </c>
       <c r="H8">
-        <v>14.4299224296997</v>
+        <v>200.954716</v>
       </c>
       <c r="I8">
-        <v>0.08520114309740179</v>
+        <v>0.3742875658328579</v>
       </c>
       <c r="J8">
-        <v>0.08520114309740179</v>
+        <v>0.3742875658328579</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.21127627861901</v>
+        <v>1.820158333333333</v>
       </c>
       <c r="N8">
-        <v>3.21127627861901</v>
+        <v>5.460475</v>
       </c>
       <c r="O8">
-        <v>0.5731071638204702</v>
+        <v>0.2800438615160994</v>
       </c>
       <c r="P8">
-        <v>0.5731071638204702</v>
+        <v>0.2800438615160994</v>
       </c>
       <c r="Q8">
-        <v>46.33846760080703</v>
+        <v>121.9231336500111</v>
       </c>
       <c r="R8">
-        <v>46.33846760080703</v>
+        <v>1097.3082028501</v>
       </c>
       <c r="S8">
-        <v>0.04882938547481397</v>
+        <v>0.1048169352532948</v>
       </c>
       <c r="T8">
-        <v>0.04882938547481397</v>
+        <v>0.1048169352532948</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.4299224296997</v>
+        <v>66.98490533333333</v>
       </c>
       <c r="H9">
-        <v>14.4299224296997</v>
+        <v>200.954716</v>
       </c>
       <c r="I9">
-        <v>0.08520114309740179</v>
+        <v>0.3742875658328579</v>
       </c>
       <c r="J9">
-        <v>0.08520114309740179</v>
+        <v>0.3742875658328579</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.617024204402854</v>
+        <v>0.035383</v>
       </c>
       <c r="N9">
-        <v>0.617024204402854</v>
+        <v>0.106149</v>
       </c>
       <c r="O9">
-        <v>0.1101185202121489</v>
+        <v>0.005443917581542344</v>
       </c>
       <c r="P9">
-        <v>0.1101185202121489</v>
+        <v>0.005443917581542346</v>
       </c>
       <c r="Q9">
-        <v>8.903611406780355</v>
+        <v>2.370126905409333</v>
       </c>
       <c r="R9">
-        <v>8.903611406780355</v>
+        <v>21.331142148684</v>
       </c>
       <c r="S9">
-        <v>0.00938222379826943</v>
+        <v>0.002037590660190183</v>
       </c>
       <c r="T9">
-        <v>0.00938222379826943</v>
+        <v>0.002037590660190183</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,247 +1021,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.4299224296997</v>
+        <v>78.53540533333334</v>
       </c>
       <c r="H10">
-        <v>14.4299224296997</v>
+        <v>235.606216</v>
       </c>
       <c r="I10">
-        <v>0.08520114309740179</v>
+        <v>0.4388276067217579</v>
       </c>
       <c r="J10">
-        <v>0.08520114309740179</v>
+        <v>0.4388276067217579</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.77497318260791</v>
+        <v>3.878011333333333</v>
       </c>
       <c r="N10">
-        <v>1.77497318260791</v>
+        <v>11.634034</v>
       </c>
       <c r="O10">
-        <v>0.3167743159673808</v>
+        <v>0.5966586801275698</v>
       </c>
       <c r="P10">
-        <v>0.3167743159673808</v>
+        <v>0.59665868012757</v>
       </c>
       <c r="Q10">
-        <v>25.61272533982934</v>
+        <v>304.5611919505938</v>
       </c>
       <c r="R10">
-        <v>25.61272533982934</v>
+        <v>2741.050727555344</v>
       </c>
       <c r="S10">
-        <v>0.02698953382431838</v>
+        <v>0.2618303006301444</v>
       </c>
       <c r="T10">
-        <v>0.02698953382431838</v>
+        <v>0.2618303006301444</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.2179973497308</v>
+        <v>78.53540533333334</v>
       </c>
       <c r="H11">
-        <v>10.2179973497308</v>
+        <v>235.606216</v>
       </c>
       <c r="I11">
-        <v>0.06033192892093764</v>
+        <v>0.4388276067217579</v>
       </c>
       <c r="J11">
-        <v>0.06033192892093764</v>
+        <v>0.4388276067217579</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.21127627861901</v>
+        <v>0.7659946666666667</v>
       </c>
       <c r="N11">
-        <v>3.21127627861901</v>
+        <v>2.297984</v>
       </c>
       <c r="O11">
-        <v>0.5731071638204702</v>
+        <v>0.1178535407747883</v>
       </c>
       <c r="P11">
-        <v>0.5731071638204702</v>
+        <v>0.1178535407747883</v>
       </c>
       <c r="Q11">
-        <v>32.81281250418242</v>
+        <v>60.15770162983824</v>
       </c>
       <c r="R11">
-        <v>32.81281250418242</v>
+        <v>541.4193146685441</v>
       </c>
       <c r="S11">
-        <v>0.03457666067169677</v>
+        <v>0.05171738724188547</v>
       </c>
       <c r="T11">
-        <v>0.03457666067169677</v>
+        <v>0.05171738724188547</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.2179973497308</v>
+        <v>78.53540533333334</v>
       </c>
       <c r="H12">
-        <v>10.2179973497308</v>
+        <v>235.606216</v>
       </c>
       <c r="I12">
-        <v>0.06033192892093764</v>
+        <v>0.4388276067217579</v>
       </c>
       <c r="J12">
-        <v>0.06033192892093764</v>
+        <v>0.4388276067217579</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.617024204402854</v>
+        <v>1.820158333333333</v>
       </c>
       <c r="N12">
-        <v>0.617024204402854</v>
+        <v>5.460475</v>
       </c>
       <c r="O12">
-        <v>0.1101185202121489</v>
+        <v>0.2800438615160994</v>
       </c>
       <c r="P12">
-        <v>0.1101185202121489</v>
+        <v>0.2800438615160994</v>
       </c>
       <c r="Q12">
-        <v>6.304751685308117</v>
+        <v>142.9468724791778</v>
       </c>
       <c r="R12">
-        <v>6.304751685308117</v>
+        <v>1286.5218523126</v>
       </c>
       <c r="S12">
-        <v>0.006643662734318202</v>
+        <v>0.1228909775262293</v>
       </c>
       <c r="T12">
-        <v>0.006643662734318202</v>
+        <v>0.1228909775262293</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>78.53540533333334</v>
+      </c>
+      <c r="H13">
+        <v>235.606216</v>
+      </c>
+      <c r="I13">
+        <v>0.4388276067217579</v>
+      </c>
+      <c r="J13">
+        <v>0.4388276067217579</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.035383</v>
+      </c>
+      <c r="N13">
+        <v>0.106149</v>
+      </c>
+      <c r="O13">
+        <v>0.005443917581542344</v>
+      </c>
+      <c r="P13">
+        <v>0.005443917581542346</v>
+      </c>
+      <c r="Q13">
+        <v>2.778818246909334</v>
+      </c>
+      <c r="R13">
+        <v>25.009364222184</v>
+      </c>
+      <c r="S13">
+        <v>0.002388941323498727</v>
+      </c>
+      <c r="T13">
+        <v>0.002388941323498728</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>18.945029</v>
+      </c>
+      <c r="H14">
+        <v>56.835087</v>
+      </c>
+      <c r="I14">
+        <v>0.1058580101555253</v>
+      </c>
+      <c r="J14">
+        <v>0.1058580101555253</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.878011333333333</v>
+      </c>
+      <c r="N14">
+        <v>11.634034</v>
+      </c>
+      <c r="O14">
+        <v>0.5966586801275698</v>
+      </c>
+      <c r="P14">
+        <v>0.59665868012757</v>
+      </c>
+      <c r="Q14">
+        <v>73.46903717232867</v>
+      </c>
+      <c r="R14">
+        <v>661.221334550958</v>
+      </c>
+      <c r="S14">
+        <v>0.06316110062032664</v>
+      </c>
+      <c r="T14">
+        <v>0.06316110062032664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>18.945029</v>
+      </c>
+      <c r="H15">
+        <v>56.835087</v>
+      </c>
+      <c r="I15">
+        <v>0.1058580101555253</v>
+      </c>
+      <c r="J15">
+        <v>0.1058580101555253</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.7659946666666667</v>
+      </c>
+      <c r="N15">
+        <v>2.297984</v>
+      </c>
+      <c r="O15">
+        <v>0.1178535407747883</v>
+      </c>
+      <c r="P15">
+        <v>0.1178535407747883</v>
+      </c>
+      <c r="Q15">
+        <v>14.51179117384534</v>
+      </c>
+      <c r="R15">
+        <v>130.606120564608</v>
+      </c>
+      <c r="S15">
+        <v>0.01247574131620216</v>
+      </c>
+      <c r="T15">
+        <v>0.01247574131620216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>18.945029</v>
+      </c>
+      <c r="H16">
+        <v>56.835087</v>
+      </c>
+      <c r="I16">
+        <v>0.1058580101555253</v>
+      </c>
+      <c r="J16">
+        <v>0.1058580101555253</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.820158333333333</v>
+      </c>
+      <c r="N16">
+        <v>5.460475</v>
+      </c>
+      <c r="O16">
+        <v>0.2800438615160994</v>
+      </c>
+      <c r="P16">
+        <v>0.2800438615160994</v>
+      </c>
+      <c r="Q16">
+        <v>34.48295240959167</v>
+      </c>
+      <c r="R16">
+        <v>310.346571686325</v>
+      </c>
+      <c r="S16">
+        <v>0.02964488593636378</v>
+      </c>
+      <c r="T16">
+        <v>0.02964488593636378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>18.945029</v>
+      </c>
+      <c r="H17">
+        <v>56.835087</v>
+      </c>
+      <c r="I17">
+        <v>0.1058580101555253</v>
+      </c>
+      <c r="J17">
+        <v>0.1058580101555253</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.035383</v>
+      </c>
+      <c r="N17">
+        <v>0.106149</v>
+      </c>
+      <c r="O17">
+        <v>0.005443917581542344</v>
+      </c>
+      <c r="P17">
+        <v>0.005443917581542346</v>
+      </c>
+      <c r="Q17">
+        <v>0.670331961107</v>
+      </c>
+      <c r="R17">
+        <v>6.032987649963</v>
+      </c>
+      <c r="S17">
+        <v>0.0005762822826327524</v>
+      </c>
+      <c r="T17">
+        <v>0.0005762822826327525</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>13.05517466666667</v>
+      </c>
+      <c r="H18">
+        <v>39.165524</v>
+      </c>
+      <c r="I18">
+        <v>0.07294762190367494</v>
+      </c>
+      <c r="J18">
+        <v>0.07294762190367494</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.878011333333333</v>
+      </c>
+      <c r="N18">
+        <v>11.634034</v>
+      </c>
+      <c r="O18">
+        <v>0.5966586801275698</v>
+      </c>
+      <c r="P18">
+        <v>0.59665868012757</v>
+      </c>
+      <c r="Q18">
+        <v>50.62811531597956</v>
+      </c>
+      <c r="R18">
+        <v>455.653037843816</v>
+      </c>
+      <c r="S18">
+        <v>0.0435248318034917</v>
+      </c>
+      <c r="T18">
+        <v>0.0435248318034917</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>10.2179973497308</v>
-      </c>
-      <c r="H13">
-        <v>10.2179973497308</v>
-      </c>
-      <c r="I13">
-        <v>0.06033192892093764</v>
-      </c>
-      <c r="J13">
-        <v>0.06033192892093764</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.77497318260791</v>
-      </c>
-      <c r="N13">
-        <v>1.77497318260791</v>
-      </c>
-      <c r="O13">
-        <v>0.3167743159673808</v>
-      </c>
-      <c r="P13">
-        <v>0.3167743159673808</v>
-      </c>
-      <c r="Q13">
-        <v>18.13667127573087</v>
-      </c>
-      <c r="R13">
-        <v>18.13667127573087</v>
-      </c>
-      <c r="S13">
-        <v>0.01911160551492266</v>
-      </c>
-      <c r="T13">
-        <v>0.01911160551492266</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>13.05517466666667</v>
+      </c>
+      <c r="H19">
+        <v>39.165524</v>
+      </c>
+      <c r="I19">
+        <v>0.07294762190367494</v>
+      </c>
+      <c r="J19">
+        <v>0.07294762190367494</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.7659946666666667</v>
+      </c>
+      <c r="N19">
+        <v>2.297984</v>
+      </c>
+      <c r="O19">
+        <v>0.1178535407747883</v>
+      </c>
+      <c r="P19">
+        <v>0.1178535407747883</v>
+      </c>
+      <c r="Q19">
+        <v>10.00019416706845</v>
+      </c>
+      <c r="R19">
+        <v>90.00174750361602</v>
+      </c>
+      <c r="S19">
+        <v>0.008597135532448596</v>
+      </c>
+      <c r="T19">
+        <v>0.008597135532448598</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>13.05517466666667</v>
+      </c>
+      <c r="H20">
+        <v>39.165524</v>
+      </c>
+      <c r="I20">
+        <v>0.07294762190367494</v>
+      </c>
+      <c r="J20">
+        <v>0.07294762190367494</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.820158333333333</v>
+      </c>
+      <c r="N20">
+        <v>5.460475</v>
+      </c>
+      <c r="O20">
+        <v>0.2800438615160994</v>
+      </c>
+      <c r="P20">
+        <v>0.2800438615160994</v>
+      </c>
+      <c r="Q20">
+        <v>23.76248496265556</v>
+      </c>
+      <c r="R20">
+        <v>213.8623646639</v>
+      </c>
+      <c r="S20">
+        <v>0.02042853372632153</v>
+      </c>
+      <c r="T20">
+        <v>0.02042853372632153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>13.05517466666667</v>
+      </c>
+      <c r="H21">
+        <v>39.165524</v>
+      </c>
+      <c r="I21">
+        <v>0.07294762190367494</v>
+      </c>
+      <c r="J21">
+        <v>0.07294762190367494</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.035383</v>
+      </c>
+      <c r="N21">
+        <v>0.106149</v>
+      </c>
+      <c r="O21">
+        <v>0.005443917581542344</v>
+      </c>
+      <c r="P21">
+        <v>0.005443917581542346</v>
+      </c>
+      <c r="Q21">
+        <v>0.4619312452306667</v>
+      </c>
+      <c r="R21">
+        <v>4.157381207076</v>
+      </c>
+      <c r="S21">
+        <v>0.0003971208414131195</v>
+      </c>
+      <c r="T21">
+        <v>0.0003971208414131196</v>
       </c>
     </row>
   </sheetData>
